--- a/Excels/ZHS召唤兽.xlsx
+++ b/Excels/ZHS召唤兽.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="召唤兽加护技能表" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>#index multiple summonbeast_id star_fighting</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>array</t>
@@ -193,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -217,6 +217,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -225,7 +278,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,122 +347,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +382,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,175 +538,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,15 +587,6 @@
       </top>
       <bottom style="dashed">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,12 +621,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -650,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,9 +680,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +699,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,16 +711,16 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,115 +729,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,12 +1207,12 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="30.25" customWidth="1"/>
@@ -1253,34 +1253,34 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>8</v>

--- a/Excels/ZHS召唤兽.xlsx
+++ b/Excels/ZHS召唤兽.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="召唤兽加护技能表" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,19 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name summonbeastguardskill</t>
+    <t>#name CfgSummonBeastGuardSkill</t>
   </si>
   <si>
     <t>#index unique id</t>
   </si>
   <si>
-    <t>#index multiple summonbeast_id</t>
-  </si>
-  <si>
-    <t>#index unique summonbeast_id star</t>
-  </si>
-  <si>
-    <t>#index multiple summonbeast_id star_fighting</t>
+    <t>#index multiple summonBeastId</t>
+  </si>
+  <si>
+    <t>#index unique summonBeastId star</t>
+  </si>
+  <si>
+    <t>#index multiple summonBeastId starFighting</t>
   </si>
   <si>
     <t>string</t>
@@ -49,94 +49,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>summonbeast_id</t>
+    <t>summonBeastId</t>
   </si>
   <si>
     <t>star</t>
   </si>
   <si>
-    <t>star_fighting</t>
-  </si>
-  <si>
-    <t>skill_desc_lang1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>skill_desc_args</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>skill_desc_lang2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>skill_desc_args</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>skill_desc_lang3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>skill_desc_args</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>skill_desc_lang4</t>
-  </si>
-  <si>
-    <t>skill_desc_args4</t>
+    <t>starFighting</t>
+  </si>
+  <si>
+    <t>skillDescLang1</t>
+  </si>
+  <si>
+    <t>skillDescArgs1</t>
+  </si>
+  <si>
+    <t>skillDescLang2</t>
+  </si>
+  <si>
+    <t>skillDescArgs2</t>
+  </si>
+  <si>
+    <t>skillDescLang3</t>
+  </si>
+  <si>
+    <t>skillDescArgs3</t>
+  </si>
+  <si>
+    <t>skillDescLang4</t>
+  </si>
+  <si>
+    <t>skillDescArgs4</t>
   </si>
   <si>
     <t>召唤兽id</t>
@@ -192,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -217,24 +160,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +219,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -256,6 +250,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -263,99 +280,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,13 +325,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,19 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,61 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,79 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +554,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,15 +592,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -659,6 +602,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,167 +631,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,18 +1150,19 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="30.25" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="32.25" customWidth="1"/>
+    <col min="6" max="6" width="41.875" customWidth="1"/>
     <col min="7" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Excels/ZHS召唤兽.xlsx
+++ b/Excels/ZHS召唤兽.xlsx
@@ -13,75 +13,82 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgSummonBeastGuardSkill</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>#index multiple summonBeastId</t>
-  </si>
-  <si>
-    <t>#index unique summonBeastId star</t>
-  </si>
-  <si>
-    <t>#index multiple summonBeastId starFighting</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>array</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgSummonBeastGuardSkill</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>[id],[summonBeastId,star]</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>[summonBeastId],[summonBeastId,starFighting]</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>summonBeastId</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>starFighting</t>
-  </si>
-  <si>
-    <t>skillDescLang1</t>
-  </si>
-  <si>
-    <t>skillDescArgs1</t>
-  </si>
-  <si>
-    <t>skillDescLang2</t>
-  </si>
-  <si>
-    <t>skillDescArgs2</t>
-  </si>
-  <si>
-    <t>skillDescLang3</t>
-  </si>
-  <si>
-    <t>skillDescArgs3</t>
-  </si>
-  <si>
-    <t>skillDescLang4</t>
-  </si>
-  <si>
-    <t>skillDescArgs4</t>
-  </si>
-  <si>
     <t>召唤兽id</t>
   </si>
   <si>
@@ -113,6 +120,51 @@
   </si>
   <si>
     <t>技能描述参数列表4</t>
+  </si>
+  <si>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>summonBeastId(int)</t>
+  </si>
+  <si>
+    <t>star(int)</t>
+  </si>
+  <si>
+    <t>starFighting(int)</t>
+  </si>
+  <si>
+    <t>skillDescLang1(string)</t>
+  </si>
+  <si>
+    <t>skillDescArgs1(json)</t>
+  </si>
+  <si>
+    <t>skillDescLang2(string)</t>
+  </si>
+  <si>
+    <t>skillDescArgs2(json)</t>
+  </si>
+  <si>
+    <t>skillDescLang3(string)</t>
+  </si>
+  <si>
+    <t>skillDescArgs3(json)</t>
+  </si>
+  <si>
+    <t>skillDescLang4(string)</t>
+  </si>
+  <si>
+    <t>skillDescArgs4(json)</t>
+  </si>
+  <si>
+    <t>skillDescArgs1(array)</t>
+  </si>
+  <si>
+    <t>skillDescArgs2(array)</t>
+  </si>
+  <si>
+    <t>skillDescArgs4(array)</t>
   </si>
   <si>
     <t>[1,2,3]</t>
@@ -135,12 +187,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +212,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,14 +289,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +312,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,104 +342,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -313,13 +370,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,181 +520,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,6 +606,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,21 +656,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,175 +688,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +849,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,26 +1207,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="32.25" customWidth="1"/>
     <col min="6" max="6" width="41.875" customWidth="1"/>
-    <col min="7" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="9" width="24.875" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:12">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1182,244 +1245,372 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
-      <c r="A5" s="4">
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16" customHeight="1" spans="1:12">
+      <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B19" s="5">
         <v>411001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C19" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D19" s="5">
         <v>1000</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A6" s="4">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B20" s="5">
         <v>411001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D20" s="5">
         <v>2000</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A7" s="4">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A21" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B21" s="5">
         <v>411001</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D21" s="5">
         <v>3000</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B22">
         <v>411002</v>
       </c>
-      <c r="C8">
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D22">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B23" s="5">
         <v>411001</v>
       </c>
-      <c r="C9">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D23">
         <v>1000</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
+      <c r="E23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>